--- a/QC_data.xlsx
+++ b/QC_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14400" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -991,11 +991,12 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
+    <col min="3" max="3" width="12.625"/>
     <col min="4" max="4" width="12.875" customWidth="1"/>
     <col min="5" max="5" width="11.5"/>
     <col min="6" max="7" width="10.375"/>
@@ -1029,20 +1030,24 @@
         <v>0.002</v>
       </c>
       <c r="B2">
-        <v>0.103</v>
+        <v>0.102</v>
+      </c>
+      <c r="C2">
+        <f>SQRT(0.134^2/0.0034*A2)</f>
+        <v>0.102773308505548</v>
       </c>
       <c r="D2">
-        <v>1.0003</v>
+        <v>1.0001</v>
       </c>
       <c r="E2">
         <f>B2^2</f>
-        <v>0.010609</v>
+        <v>0.010404</v>
       </c>
       <c r="F2">
-        <v>0.092536</v>
+        <v>0.0925411</v>
       </c>
       <c r="G2">
-        <v>0.241112</v>
+        <v>0.241155</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1052,6 +1057,10 @@
       <c r="B3">
         <v>0.134</v>
       </c>
+      <c r="C3">
+        <f>SQRT(0.134^2/0.0034*A3)</f>
+        <v>0.134</v>
+      </c>
       <c r="D3">
         <v>1.00007</v>
       </c>
@@ -1073,6 +1082,10 @@
       <c r="B4">
         <v>0.1454</v>
       </c>
+      <c r="C4">
+        <f t="shared" ref="C4:C9" si="1">SQRT(0.134^2/0.0034*A4)</f>
+        <v>0.1453434067385</v>
+      </c>
       <c r="D4">
         <v>0.99999</v>
       </c>
@@ -1094,6 +1107,10 @@
       <c r="B5">
         <v>0.163</v>
       </c>
+      <c r="C5">
+        <f t="shared" si="1"/>
+        <v>0.162498868774343</v>
+      </c>
       <c r="D5">
         <v>1.00008</v>
       </c>
@@ -1115,6 +1132,10 @@
       <c r="B6">
         <v>0.1785</v>
       </c>
+      <c r="C6">
+        <f t="shared" si="1"/>
+        <v>0.178008591993559</v>
+      </c>
       <c r="D6" s="2">
         <v>0.9999</v>
       </c>
@@ -1134,20 +1155,24 @@
         <v>0.007</v>
       </c>
       <c r="B7">
-        <v>0.1925</v>
+        <v>0.1935</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="1"/>
+        <v>0.19227125446649</v>
       </c>
       <c r="D7">
-        <v>0.99962</v>
+        <v>0.99994</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>0.03705625</v>
+        <v>0.03744225</v>
       </c>
       <c r="F7">
-        <v>0.0964723</v>
+        <v>0.0964696</v>
       </c>
       <c r="G7">
-        <v>0.257528</v>
+        <v>0.257463</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1157,6 +1182,10 @@
       <c r="B8">
         <v>0.2072</v>
       </c>
+      <c r="C8">
+        <f t="shared" si="1"/>
+        <v>0.205546617011095</v>
+      </c>
       <c r="D8" s="2">
         <v>0.9999</v>
       </c>
@@ -1176,20 +1205,24 @@
         <v>0.01</v>
       </c>
       <c r="B9">
-        <v>0.235</v>
-      </c>
-      <c r="D9">
-        <v>1.00096</v>
+        <v>0.2325</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="1"/>
+        <v>0.229808104090962</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1</v>
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>0.055225</v>
+        <v>0.05405625</v>
       </c>
       <c r="F9">
-        <v>0.0986266</v>
+        <v>0.0982149</v>
       </c>
       <c r="G9">
-        <v>0.264458</v>
+        <v>0.264597</v>
       </c>
     </row>
   </sheetData>
